--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 - Foundations" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="231">
   <si>
     <t>Mon (Day 1)</t>
   </si>
@@ -667,6 +667,57 @@
   </si>
   <si>
     <t>Confidence Level (1-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLD </t>
+  </si>
+  <si>
+    <t>Dynamic Form Builder (Auto Fileds, validation, achema Driven UI)</t>
+  </si>
+  <si>
+    <t>Multi Step Wizard (Persisted State across steps)</t>
+  </si>
+  <si>
+    <t>Form validation at scale (Async rules, cross field validation</t>
+  </si>
+  <si>
+    <t>Modal Manager System (Global open close orchestration)</t>
+  </si>
+  <si>
+    <t>Notification and Toast system (Queue based alerts with expiry</t>
+  </si>
+  <si>
+    <t>Tooltip System (Positioning, portals, accessibility)</t>
+  </si>
+  <si>
+    <t>Data Table with Sorting and Filtering (client and server side models)</t>
+  </si>
+  <si>
+    <t>Infinite scroll List (Cursor based pagination)</t>
+  </si>
+  <si>
+    <t>Vitualized list for 100k Items (Windowed rendering)</t>
+  </si>
+  <si>
+    <t>Auth Flow System (Login refresh tokens, protected routes)</t>
+  </si>
+  <si>
+    <t>File upload with progress (chunking, preview,retry)</t>
+  </si>
+  <si>
+    <t>Kanban Drag and drop Borad (static sync with gestures)</t>
+  </si>
+  <si>
+    <t>Every React LLD Tests 3 things</t>
+  </si>
+  <si>
+    <t>1. State Control (Data Flow, updates, sync)</t>
+  </si>
+  <si>
+    <t>2. UI Architecture (Reusable Components, Layout)</t>
+  </si>
+  <si>
+    <t>3. Performance under load (Large Lists, Real time, caching</t>
   </si>
 </sst>
 </file>
@@ -702,8 +753,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1486,15 +1549,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -1637,6 +1702,87 @@
       </c>
       <c r="E8" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
